--- a/medicine/Enfance/Marc_Flament/Marc_Flament.xlsx
+++ b/medicine/Enfance/Marc_Flament/Marc_Flament.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Marc Flament, né le 7 octobre 1929 à Bordeaux et mort le 17 novembre 1991 à Paris, est un militaire, reporter-photographe de guerre, réalisateur de film, écrivain et peintre français, connu notamment pour ses photos de la guerre d'Algérie et ses romans pour la jeunesse.
 Écrivain et illustrateur prolifique, il a illustré de ses photos et écrit 33 livres, dont cinq sur la guerre d'Algérie avec Marcel Bigeard (alors colonel) et Jean Lartéguy, ainsi qu'une quinzaine d'autres dans la Bibliothèque Verte destinés à la jeunesse.
@@ -512,33 +524,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Marc Flament naît dans une famille de boulangers. Il fait de courtes études avant d'intégrer les Beaux-arts où il développe son talent pour la peinture[1].
-Parachutiste
-À 18 ans, après la mort de ses parents, il s'engage pour 3 ans au 6e bataillon colonial de commandos parachutistes[1] pour servir en Indochine. Breveté parachutiste le 7 octobre 1948, il débarque à Tourane dans l'Annam en juin 1949.
-Nommé caporal le 1er janvier 1951, il rejoint la 11e compagnie du 6e bataillon de parachutistes coloniaux. Arrivé au terme de son contrat, il rentre en France à l'été 1951.
-En avril 1952, toujours attiré par l'Asie et l'action, il se ré-engage à la 1re demi-brigade coloniale de commandos parachutistes.
-Nommé caporal-chef le 1er août 1952, il est affecté à la base aéroportée sud à Saïgon. Détaché au groupement de commandos mixtes aéroportés (GCMA), il se distingue le 30 décembre 1952 lors d'une opération de diversion sur les arrières puis le 23 avril 1953[2] au cours de l'opération amphibie « RIFF ». Blessé à la cuisse, il s'empare avec son groupe de ses objectifs sous le feu des armes ennemies.
-Pour son courage, son esprit de décision au combat, il est cité à l'ordre du corps d'armée et reçoit la croix de guerre des théâtres d'Opérations Extérieures[3].
-Promu sergent le 1er août 1953, il effectue de nombreux raids avec la « flotte pirate » des GCMA du Centre Annam[2]. Chef de groupe apprécié[réf. nécessaire], il est pour ses actions d'éclats à nouveau cité à l'ordre de la brigade en septembre 1953[réf. nécessaire], puis à l'ordre du corps d'armée en mars 1954 pour avoir entrainé ses hommes à l'assaut d'un village tenu par le Việt Minh.
-Il est affecté au service presse information. Passionné par le dessin, il profite des moments de repos et d'attente pour réaliser des dessins humoristiques sur la vie des forces armées françaises en Indochine et les publie dès 1952 dans la revue militaire Caravelle[2].
-La guerre terminée, il rentre à Bordeaux en février 1956[3].
-Reporter-photographe
-Il écourte son congé pour rejoindre l'Algérie[4]. Affecté comme reporter dessinateur à la 10e division parachutiste[2], il débarque à Alger le 24 juillet 1956. Désigné comme photographe, il se découvre une nouvelle passion et réalise son premier reportage lors de la campagne de Suez en 1956. À son retour, il se fait affecter en 1957 au 3e régiment de parachutistes coloniaux auprès du colonel Bigeard[5],[1].
-Le sergent Flament devient alors le photographe « Bruno » (indicatif radio de Bigeard devenu son nom de guerre) des parachutistes. Il participe à de nombreuses opérations, saute pendant les opérations de Timimoun (Sahara occidental) en novembre 1957 et décembre 1957, en se déplaçant pendant toutes les opérations avec les sections de tête. C'est lors de ces opérations qu'il réalise les photographies de l'agonie du parachutiste René Sentenac[6], mortellement blessé, dont l'une d'elles illustre l'affiche du film Les Yeux brûlés.
-La Croix de la valeur militaire lui est décernée à l'ordre de la brigade puis du Corps d'armée pour son action lors des opérations dans l'Atlas Blidéen notamment[5].
-Nommé sergent-chef le 19 avril 1958, il est décoré de la Médaille militaire en décembre de la même année. En mars 1959, il est affecté à l'État-Major de l'arrondissement de Saïda. Équipé seulement d'un appareil photo Rolleiflex, il sillonne toute l'Algérie en tant que reporter-photographe.
-Il est cité à deux reprises à l'ordre de la brigade. Sa collection de photos de guerre regroupe 35 000 clichés[7]. Il publie plus de 33 livres, dont : Piste sans fin et Aucune bête au monde, écrit par le Colonel Bigeard.
-Dans son unique témoignage filmé, il évoque la nature de son travail et son rôle dans la production des images de guerre ainsi que de sa place au front dans le film Les Yeux brûlés (1986), réalisé par Laurent Roth, documentaire consacré aux grands reporters de guerre.
-Réalisateur de films
-En 1961, il quitte le service actif, mais l'armée et le cinéma l'attirent toujours. Après 10 ans d'interruption, il se ré-engage en 1971 comme réalisateur à la compagnie autonome interarmées du cinéma (CAIC) qui devient l'établissement cinématographique des armées Établissement de communication et de production audiovisuelle de la Défense (ECPA). Il réalise près de 50 films.
-Arrivé en fin de contrat le 9 avril 1974, le sergent-chef Flament prend alors sa retraite mais continue à travailler régulièrement avec l'ECPA à titre civil[2].
-Peintre
-En 1982, il renoue avec la peinture et ouvre une galerie à Paris.
-Châtelain
-En 1988, Marc Flament achète une forteresse médiévale, le château de Culan, et poursuit sa restauration et son animation.
-Il meurt le 17 novembre 1991 à Paris et est inhumé dans les jardins du château de Culan. Sa veuve, Alice Flament, pérennise son œuvre jusqu'en 2001.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Marc Flament naît dans une famille de boulangers. Il fait de courtes études avant d'intégrer les Beaux-arts où il développe son talent pour la peinture.
 </t>
         </is>
       </c>
@@ -564,12 +554,25 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Parrainage</t>
+          <t>Biographie</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Le sergent-chef Marc Flament est parrain de la 267e promotion, 1er Bataillon du 1er mars au 29 octobre 2010 ; il est aussi parrain de la 270e promotion, 3e Bataillon du 12 juillet au 29 octobre 2010 de l'École nationale des sous-officiers d'active.
+          <t>Parachutiste</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À 18 ans, après la mort de ses parents, il s'engage pour 3 ans au 6e bataillon colonial de commandos parachutistes pour servir en Indochine. Breveté parachutiste le 7 octobre 1948, il débarque à Tourane dans l'Annam en juin 1949.
+Nommé caporal le 1er janvier 1951, il rejoint la 11e compagnie du 6e bataillon de parachutistes coloniaux. Arrivé au terme de son contrat, il rentre en France à l'été 1951.
+En avril 1952, toujours attiré par l'Asie et l'action, il se ré-engage à la 1re demi-brigade coloniale de commandos parachutistes.
+Nommé caporal-chef le 1er août 1952, il est affecté à la base aéroportée sud à Saïgon. Détaché au groupement de commandos mixtes aéroportés (GCMA), il se distingue le 30 décembre 1952 lors d'une opération de diversion sur les arrières puis le 23 avril 1953 au cours de l'opération amphibie « RIFF ». Blessé à la cuisse, il s'empare avec son groupe de ses objectifs sous le feu des armes ennemies.
+Pour son courage, son esprit de décision au combat, il est cité à l'ordre du corps d'armée et reçoit la croix de guerre des théâtres d'Opérations Extérieures.
+Promu sergent le 1er août 1953, il effectue de nombreux raids avec la « flotte pirate » des GCMA du Centre Annam. Chef de groupe apprécié[réf. nécessaire], il est pour ses actions d'éclats à nouveau cité à l'ordre de la brigade en septembre 1953[réf. nécessaire], puis à l'ordre du corps d'armée en mars 1954 pour avoir entrainé ses hommes à l'assaut d'un village tenu par le Việt Minh.
+Il est affecté au service presse information. Passionné par le dessin, il profite des moments de repos et d'attente pour réaliser des dessins humoristiques sur la vie des forces armées françaises en Indochine et les publie dès 1952 dans la revue militaire Caravelle.
+La guerre terminée, il rentre à Bordeaux en février 1956.
 </t>
         </is>
       </c>
@@ -595,10 +598,200 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Reporter-photographe</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il écourte son congé pour rejoindre l'Algérie. Affecté comme reporter dessinateur à la 10e division parachutiste, il débarque à Alger le 24 juillet 1956. Désigné comme photographe, il se découvre une nouvelle passion et réalise son premier reportage lors de la campagne de Suez en 1956. À son retour, il se fait affecter en 1957 au 3e régiment de parachutistes coloniaux auprès du colonel Bigeard,.
+Le sergent Flament devient alors le photographe « Bruno » (indicatif radio de Bigeard devenu son nom de guerre) des parachutistes. Il participe à de nombreuses opérations, saute pendant les opérations de Timimoun (Sahara occidental) en novembre 1957 et décembre 1957, en se déplaçant pendant toutes les opérations avec les sections de tête. C'est lors de ces opérations qu'il réalise les photographies de l'agonie du parachutiste René Sentenac, mortellement blessé, dont l'une d'elles illustre l'affiche du film Les Yeux brûlés.
+La Croix de la valeur militaire lui est décernée à l'ordre de la brigade puis du Corps d'armée pour son action lors des opérations dans l'Atlas Blidéen notamment.
+Nommé sergent-chef le 19 avril 1958, il est décoré de la Médaille militaire en décembre de la même année. En mars 1959, il est affecté à l'État-Major de l'arrondissement de Saïda. Équipé seulement d'un appareil photo Rolleiflex, il sillonne toute l'Algérie en tant que reporter-photographe.
+Il est cité à deux reprises à l'ordre de la brigade. Sa collection de photos de guerre regroupe 35 000 clichés. Il publie plus de 33 livres, dont : Piste sans fin et Aucune bête au monde, écrit par le Colonel Bigeard.
+Dans son unique témoignage filmé, il évoque la nature de son travail et son rôle dans la production des images de guerre ainsi que de sa place au front dans le film Les Yeux brûlés (1986), réalisé par Laurent Roth, documentaire consacré aux grands reporters de guerre.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Marc_Flament</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marc_Flament</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Réalisateur de films</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1961, il quitte le service actif, mais l'armée et le cinéma l'attirent toujours. Après 10 ans d'interruption, il se ré-engage en 1971 comme réalisateur à la compagnie autonome interarmées du cinéma (CAIC) qui devient l'établissement cinématographique des armées Établissement de communication et de production audiovisuelle de la Défense (ECPA). Il réalise près de 50 films.
+Arrivé en fin de contrat le 9 avril 1974, le sergent-chef Flament prend alors sa retraite mais continue à travailler régulièrement avec l'ECPA à titre civil.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Marc_Flament</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marc_Flament</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Peintre</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1982, il renoue avec la peinture et ouvre une galerie à Paris.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Marc_Flament</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marc_Flament</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Châtelain</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1988, Marc Flament achète une forteresse médiévale, le château de Culan, et poursuit sa restauration et son animation.
+Il meurt le 17 novembre 1991 à Paris et est inhumé dans les jardins du château de Culan. Sa veuve, Alice Flament, pérennise son œuvre jusqu'en 2001.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Marc_Flament</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marc_Flament</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Parrainage</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le sergent-chef Marc Flament est parrain de la 267e promotion, 1er Bataillon du 1er mars au 29 octobre 2010 ; il est aussi parrain de la 270e promotion, 3e Bataillon du 12 juillet au 29 octobre 2010 de l'École nationale des sous-officiers d'active.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Marc_Flament</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marc_Flament</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Décorations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Le sergent-chef Marc Flament est titulaire des décorations suivantes :
  Médaille militaire
@@ -613,31 +806,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Marc_Flament</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Marc_Flament</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Marc_Flament</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marc_Flament</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Publications</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>Sur la guerre d'Algérie
 1956 : Voici la dernière (Guerre) Presses de l'imprimerie militaire du C.E.F. à Cholon Textes et dessins de Flament
@@ -675,61 +870,65 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Marc_Flament</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Marc_Flament</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Marc_Flament</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marc_Flament</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Documentaire</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t>Les Yeux brûlés, film documentaire français réalisé par Laurent Roth en 1986, sorti en 2015. Film de commande de l'ECPAD, il met en scène Mireille Perrier qui s'entretient, autour de la mémoire de Jean Péraud, avec des reporters de guerre du XXe siècle (par ordre d'apparition : André Lebon, Daniel Camus, Pierre Ferrari, Raoul Coutard, Marc Flament, Pierre Schoendoerffer) sur la nature de leur travail et leur rôle dans la production des images de guerre ainsi que de leur place au front.</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Marc_Flament</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Marc_Flament</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Marc_Flament</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marc_Flament</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Sources</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t xml:space="preserve">
 ↑ a b et c « Dans le vif des combats, le regard du parachutiste Flament », sur Le Monde, 31 janvier 2004 (consulté le 28 mars 2024)
